--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,13 +540,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H2">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I2">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J2">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>5.39270102941</v>
+        <v>11.38193084013422</v>
       </c>
       <c r="R2">
-        <v>48.53430926468999</v>
+        <v>102.437377561208</v>
       </c>
       <c r="S2">
-        <v>0.0202329253530045</v>
+        <v>0.03666935663711084</v>
       </c>
       <c r="T2">
-        <v>0.0202329253530045</v>
+        <v>0.03666935663711084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H3">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I3">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J3">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
         <v>118.0082709195989</v>
@@ -635,10 +635,10 @@
         <v>1062.07443827639</v>
       </c>
       <c r="S3">
-        <v>0.4427563337058577</v>
+        <v>0.3801892168612526</v>
       </c>
       <c r="T3">
-        <v>0.4427563337058577</v>
+        <v>0.3801892168612526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,13 +664,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H4">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I4">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J4">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>76.50370833413378</v>
+        <v>95.72073919668188</v>
       </c>
       <c r="R4">
-        <v>688.533375007204</v>
+        <v>861.4866527701369</v>
       </c>
       <c r="S4">
-        <v>0.2870349777432233</v>
+        <v>0.3083851037641353</v>
       </c>
       <c r="T4">
-        <v>0.2870349777432233</v>
+        <v>0.3083851037641352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,13 +726,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H5">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I5">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J5">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.8178189009914445</v>
+        <v>1.818517807655555</v>
       </c>
       <c r="R5">
-        <v>7.360370108923001</v>
+        <v>16.3666602689</v>
       </c>
       <c r="S5">
-        <v>0.003068382371986682</v>
+        <v>0.00585874918557071</v>
       </c>
       <c r="T5">
-        <v>0.003068382371986681</v>
+        <v>0.005858749185570709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H6">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>1.76803975082</v>
+        <v>3.360250806899555</v>
       </c>
       <c r="R6">
-        <v>15.91235775738</v>
+        <v>30.24225726209599</v>
       </c>
       <c r="S6">
-        <v>0.006633524852276024</v>
+        <v>0.01082577613227583</v>
       </c>
       <c r="T6">
-        <v>0.006633524852276025</v>
+        <v>0.01082577613227583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H7">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
-        <v>38.68994642453111</v>
+        <v>34.83920199024222</v>
       </c>
       <c r="R7">
-        <v>348.20951782078</v>
+        <v>313.55281791218</v>
       </c>
       <c r="S7">
-        <v>0.1451611713035993</v>
+        <v>0.1122420387784986</v>
       </c>
       <c r="T7">
-        <v>0.1451611713035993</v>
+        <v>0.1122420387784986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H8">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I8">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J8">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>25.08234680213422</v>
+        <v>28.25932573658822</v>
       </c>
       <c r="R8">
-        <v>225.741121219208</v>
+        <v>254.333931629294</v>
       </c>
       <c r="S8">
-        <v>0.09410669120317908</v>
+        <v>0.09104354158481416</v>
       </c>
       <c r="T8">
-        <v>0.09410669120317909</v>
+        <v>0.09104354158481415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H9">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I9">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J9">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>0.2681284050495556</v>
+        <v>0.5368751590888889</v>
       </c>
       <c r="R9">
-        <v>2.413155645446</v>
+        <v>4.8318764318</v>
       </c>
       <c r="S9">
-        <v>0.00100599346687338</v>
+        <v>0.001729659664493615</v>
       </c>
       <c r="T9">
-        <v>0.00100599346687338</v>
+        <v>0.001729659664493615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.311489</v>
+      </c>
+      <c r="I10">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J10">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.955277333333332</v>
+      </c>
+      <c r="N10">
+        <v>23.865832</v>
+      </c>
+      <c r="O10">
+        <v>0.05015625076675284</v>
+      </c>
+      <c r="P10">
+        <v>0.05015625076675283</v>
+      </c>
+      <c r="Q10">
+        <v>0.8259937937608888</v>
+      </c>
+      <c r="R10">
+        <v>7.433944143848</v>
+      </c>
+      <c r="S10">
+        <v>0.002661117997366169</v>
+      </c>
+      <c r="T10">
+        <v>0.002661117997366169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.311489</v>
+      </c>
+      <c r="I11">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J11">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N11">
+        <v>247.44181</v>
+      </c>
+      <c r="O11">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="P11">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="Q11">
+        <v>8.563933550565556</v>
+      </c>
+      <c r="R11">
+        <v>77.07540195509</v>
+      </c>
+      <c r="S11">
+        <v>0.02759056771588185</v>
+      </c>
+      <c r="T11">
+        <v>0.02759056771588186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.311489</v>
+      </c>
+      <c r="I12">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J12">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>66.90297433333333</v>
+      </c>
+      <c r="N12">
+        <v>200.708923</v>
+      </c>
+      <c r="O12">
+        <v>0.4218083439585467</v>
+      </c>
+      <c r="P12">
+        <v>0.4218083439585465</v>
+      </c>
+      <c r="Q12">
+        <v>6.946513524038555</v>
+      </c>
+      <c r="R12">
+        <v>62.51862171634701</v>
+      </c>
+      <c r="S12">
+        <v>0.02237969860959721</v>
+      </c>
+      <c r="T12">
+        <v>0.02237969860959721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.311489</v>
+      </c>
+      <c r="I13">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J13">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.8131</v>
+      </c>
+      <c r="O13">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P13">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q13">
+        <v>0.1319709673222222</v>
+      </c>
+      <c r="R13">
+        <v>1.1877387059</v>
+      </c>
+      <c r="S13">
+        <v>0.0004251730690032906</v>
+      </c>
+      <c r="T13">
+        <v>0.0004251730690032906</v>
       </c>
     </row>
   </sheetData>
